--- a/TestNG Learning/SeleniumCredentials2.xlsx
+++ b/TestNG Learning/SeleniumCredentials2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -397,7 +397,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
